--- a/data/old/FOREX_4Q.xlsx
+++ b/data/old/FOREX_4Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -125,6 +125,9 @@
     <t>2021Q3</t>
   </si>
   <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -386,12 +392,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -584,6 +596,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -647,6 +662,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Fiji, Rep. of</t>
   </si>
   <si>
@@ -674,6 +692,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -686,6 +707,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -749,6 +773,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -779,6 +806,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -800,6 +830,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -842,6 +875,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -863,6 +899,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -929,6 +968,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -950,6 +992,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -968,6 +1013,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1055,76 +1103,121 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Malawi</t>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Malaysia</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Maldives</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Mali</t>
+    <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Mauritania, Islamic Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Montenegro</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Mexico</t>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Morocco</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Moldova, Rep. of</t>
+    <t>Mozambique, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Mongolia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
   </si>
   <si>
     <t>Units</t>
@@ -1133,207 +1226,447 @@
     <t>...</t>
   </si>
   <si>
-    <t>Montenegro</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Montserrat</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Nepal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Mozambique, Rep. of</t>
+    <t>New Caledonia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Myanmar</t>
+    <t>New Zealand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nauru, Rep. of</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nepal</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>New Caledonia</t>
+    <t>Norway</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Oman</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t>Pakistan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Niger</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nigeria</t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>North Macedonia, Republic of</t>
+    <t>Serbia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Pakistan</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Palau, Rep. of</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Panama</t>
+    <t>Solomon Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Somalia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Paraguay</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Poland, Rep. of</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Qatar</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Rwanda</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>San Marino, Rep. of</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tajikistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tanzania, United Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1343,61 +1676,112 @@
     <t>...</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Serbia, Rep. of</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Seychelles</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Singapore</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
@@ -1442,19 +1826,28 @@
     <t>...</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>South Sudan, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
@@ -1463,286 +1856,13 @@
     <t>...</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>...</t>
@@ -2329,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI199"/>
+  <dimension ref="A1:AJ199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2372,6 +2492,7 @@
     <col min="33" max="33" width="9.710938" customWidth="1"/>
     <col min="34" max="34" width="9.710938" customWidth="1"/>
     <col min="35" max="35" width="9.710938" customWidth="1"/>
+    <col min="36" max="36" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2410,6 +2531,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2449,6 +2571,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2488,6 +2611,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2525,6 +2649,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2564,6 +2689,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2601,6 +2727,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2703,17 +2830,20 @@
       <c r="AH7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AI7" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2806,19 +2936,22 @@
         <v>110.99920188770901</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -2915,15 +3048,18 @@
       </c>
       <c r="AI9" s="20">
         <v>146.94217903249799</v>
+      </c>
+      <c r="AJ9" s="20">
+        <v>149.243409261691</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3020,99 +3156,102 @@
       </c>
       <c r="AI10" s="22">
         <v>192.75175763184799</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>193.98281001144099</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="20">
         <v>1.19439977372031</v>
@@ -3125,15 +3264,18 @@
       </c>
       <c r="AI11" s="20">
         <v>1.2062191766700601</v>
+      </c>
+      <c r="AJ11" s="20">
+        <v>1.2281557929322799</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3230,15 +3372,18 @@
       </c>
       <c r="AI12" s="22">
         <v>910.71965949325102</v>
+      </c>
+      <c r="AJ12" s="22">
+        <v>829.16365237958996</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3335,15 +3480,18 @@
       </c>
       <c r="AI13" s="20">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ13" s="20">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3440,15 +3588,18 @@
       </c>
       <c r="AI14" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ14" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3545,15 +3696,18 @@
       </c>
       <c r="AI15" s="20">
         <v>138.12408421871399</v>
+      </c>
+      <c r="AJ15" s="20">
+        <v>141.01954531705499</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3650,15 +3804,18 @@
       </c>
       <c r="AI16" s="22">
         <v>697.06926900256497</v>
+      </c>
+      <c r="AJ16" s="22">
+        <v>675.26970653569094</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3755,15 +3912,18 @@
       </c>
       <c r="AI17" s="20">
         <v>2.5451714395526701</v>
+      </c>
+      <c r="AJ17" s="20">
+        <v>2.5146280560235899</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -3860,15 +4020,18 @@
       </c>
       <c r="AI18" s="22">
         <v>1.9348395234412099</v>
+      </c>
+      <c r="AJ18" s="22">
+        <v>1.9277393204762101</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -3965,15 +4128,18 @@
       </c>
       <c r="AI19" s="20">
         <v>2.41720192583215</v>
+      </c>
+      <c r="AJ19" s="20">
+        <v>2.3881942431508998</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4070,15 +4236,18 @@
       </c>
       <c r="AI20" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ20" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4175,15 +4344,18 @@
       </c>
       <c r="AI21" s="20">
         <v>0.53462819065463896</v>
+      </c>
+      <c r="AJ21" s="20">
+        <v>0.52821237377925701</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4280,15 +4452,18 @@
       </c>
       <c r="AI22" s="22">
         <v>120.86009629160699</v>
+      </c>
+      <c r="AJ22" s="22">
+        <v>120.433879893252</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4385,15 +4560,18 @@
       </c>
       <c r="AI23" s="20">
         <v>2.8437669715672298</v>
+      </c>
+      <c r="AJ23" s="20">
+        <v>2.8096402860598801</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4490,15 +4668,18 @@
       </c>
       <c r="AI24" s="22">
         <v>3.57987605215741</v>
+      </c>
+      <c r="AJ24" s="22">
+        <v>3.4980958108207498</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4595,15 +4776,18 @@
       </c>
       <c r="AI25" s="20">
         <v>2.8437669715672298</v>
+      </c>
+      <c r="AJ25" s="20">
+        <v>2.8096402860598801</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -4700,15 +4884,18 @@
       </c>
       <c r="AI26" s="22">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ26" s="22">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -4805,15 +4992,18 @@
       </c>
       <c r="AI27" s="20">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ27" s="20">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -4910,15 +5100,18 @@
       </c>
       <c r="AI28" s="22">
         <v>105.392010308933</v>
+      </c>
+      <c r="AJ28" s="22">
+        <v>105.33860032885001</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5015,15 +5208,18 @@
       </c>
       <c r="AI29" s="20">
         <v>9.8252148867647797</v>
+      </c>
+      <c r="AJ29" s="20">
+        <v>9.7073071883368804</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5120,15 +5316,18 @@
       </c>
       <c r="AI30" s="22">
         <v>2.3580691093865398</v>
+      </c>
+      <c r="AJ30" s="22">
+        <v>2.4020288862399499</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5225,15 +5424,18 @@
       </c>
       <c r="AI31" s="20">
         <v>15.7570758088731</v>
+      </c>
+      <c r="AJ31" s="20">
+        <v>16.171493421812901</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5330,15 +5532,18 @@
       </c>
       <c r="AI32" s="22">
         <v>7.4346687623752503</v>
+      </c>
+      <c r="AJ32" s="22">
+        <v>7.84181811860888</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5435,15 +5640,18 @@
       </c>
       <c r="AI33" s="20">
         <v>1.9236161386828901</v>
+      </c>
+      <c r="AJ33" s="20">
+        <v>1.90742453512593</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5540,15 +5748,18 @@
       </c>
       <c r="AI34" s="22">
         <v>2.3593786640769498</v>
+      </c>
+      <c r="AJ34" s="22">
+        <v>2.4023360992574001</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5645,15 +5856,18 @@
       </c>
       <c r="AI35" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ35" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -5750,15 +5964,18 @@
       </c>
       <c r="AI36" s="22">
         <v>2820.4263233174001</v>
+      </c>
+      <c r="AJ36" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -5855,15 +6072,18 @@
       </c>
       <c r="AI37" s="20">
         <v>132.96740339635599</v>
+      </c>
+      <c r="AJ37" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -5960,15 +6180,18 @@
       </c>
       <c r="AI38" s="22">
         <v>5852.8602602210904</v>
+      </c>
+      <c r="AJ38" s="22">
+        <v>5770.7385620097903</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6065,15 +6288,18 @@
       </c>
       <c r="AI39" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ39" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6170,15 +6396,18 @@
       </c>
       <c r="AI40" s="22">
         <v>1.7933921464413101</v>
+      </c>
+      <c r="AJ40" s="22">
+        <v>1.76863432008517</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6275,15 +6504,18 @@
       </c>
       <c r="AI41" s="20">
         <v>1.1848981652080599</v>
+      </c>
+      <c r="AJ41" s="20">
+        <v>1.1706787697911401</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6380,15 +6612,18 @@
       </c>
       <c r="AI42" s="22">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ42" s="22">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6485,15 +6720,18 @@
       </c>
       <c r="AI43" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ43" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6590,15 +6828,18 @@
       </c>
       <c r="AI44" s="22">
         <v>1098.6124182752999</v>
+      </c>
+      <c r="AJ44" s="22">
+        <v>1157.9184134612101</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -6695,15 +6936,18 @@
       </c>
       <c r="AI45" s="20">
         <v>11.0608316359107</v>
+      </c>
+      <c r="AJ45" s="20">
+        <v>10.9435489142032</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -6800,15 +7044,18 @@
       </c>
       <c r="AI46" s="22">
         <v>11.391061231717</v>
+      </c>
+      <c r="AJ46" s="22">
+        <v>11.271090691198101</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -6905,15 +7152,18 @@
       </c>
       <c r="AI47" s="20">
         <v>9.1981791473524996</v>
+      </c>
+      <c r="AJ47" s="20">
+        <v>8.9761395303109897</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7010,15 +7260,18 @@
       </c>
       <c r="AI48" s="22">
         <v>5473.7840682300803</v>
+      </c>
+      <c r="AJ48" s="22">
+        <v>5440.3934428455896</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7115,15 +7368,18 @@
       </c>
       <c r="AI49" s="20">
         <v>593.41849201056402</v>
+      </c>
+      <c r="AJ49" s="20">
+        <v>604.38184303455</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7213,22 +7469,25 @@
         <v>2800.3140347819699</v>
       </c>
       <c r="AG50" s="22">
-        <v>2843.50880242426</v>
+        <v>2843.50879444265</v>
       </c>
       <c r="AH50" s="22">
-        <v>2852.5714993226602</v>
+        <v>2852.6720996355002</v>
       </c>
       <c r="AI50" s="22">
         <v>2831.37389542747</v>
+      </c>
+      <c r="AJ50" s="22">
+        <v>2808.1902611861201</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7325,15 +7584,18 @@
       </c>
       <c r="AI51" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ51" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7430,15 +7692,18 @@
       </c>
       <c r="AI52" s="22">
         <v>883.525806865611</v>
+      </c>
+      <c r="AJ52" s="22">
+        <v>892.22243577401696</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7535,15 +7800,18 @@
       </c>
       <c r="AI53" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ53" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -7640,15 +7908,18 @@
       </c>
       <c r="AI54" s="22">
         <v>9.0329205541950301</v>
+      </c>
+      <c r="AJ54" s="22">
+        <v>9.2257994650328001</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -7745,15 +8016,18 @@
       </c>
       <c r="AI55" s="20">
         <v>2.5451714395526701</v>
+      </c>
+      <c r="AJ55" s="20">
+        <v>2.5146280560235899</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -7850,15 +8124,18 @@
       </c>
       <c r="AI56" s="22">
         <v>2.5451714395526701</v>
+      </c>
+      <c r="AJ56" s="22">
+        <v>2.5146280560235899</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -7955,15 +8232,18 @@
       </c>
       <c r="AI57" s="20">
         <v>30.755339797499602</v>
+      </c>
+      <c r="AJ57" s="20">
+        <v>31.168276240024301</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8060,15 +8340,18 @@
       </c>
       <c r="AI58" s="22">
         <v>8.9705681148368299</v>
+      </c>
+      <c r="AJ58" s="22">
+        <v>9.1356433950596099</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8165,15 +8448,18 @@
       </c>
       <c r="AI59" s="20">
         <v>252.69855497694999</v>
+      </c>
+      <c r="AJ59" s="20">
+        <v>249.66604063942401</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8270,15 +8556,18 @@
       </c>
       <c r="AI60" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ60" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8375,15 +8664,18 @@
       </c>
       <c r="AI61" s="20">
         <v>81.113713252335998</v>
+      </c>
+      <c r="AJ61" s="20">
+        <v>79.791817375900294</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8480,15 +8772,18 @@
       </c>
       <c r="AI62" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ62" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -8585,15 +8880,18 @@
       </c>
       <c r="AI63" s="20">
         <v>22.251829703245999</v>
+      </c>
+      <c r="AJ63" s="20">
+        <v>22.0005312295457</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -8690,15 +8988,18 @@
       </c>
       <c r="AI64" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ64" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -8795,15 +9096,18 @@
       </c>
       <c r="AI65" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ65" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -8900,15 +9204,18 @@
       </c>
       <c r="AI66" s="22">
         <v>21.434893548188001</v>
+      </c>
+      <c r="AJ66" s="22">
+        <v>21.1776636561763</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9005,15 +9312,18 @@
       </c>
       <c r="AI67" s="20">
         <v>20.817893801569301</v>
+      </c>
+      <c r="AJ67" s="20">
+        <v>21.6438225900093</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9106,19 +9416,22 @@
         <v>57.314333532902801</v>
       </c>
       <c r="AH68" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="AJ68" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9215,15 +9528,18 @@
       </c>
       <c r="AI69" s="20">
         <v>1.20621421223355</v>
+      </c>
+      <c r="AJ69" s="20">
+        <v>1.22849890675669</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9271,64 +9587,67 @@
         <v>9.2868669896292193</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Z70" s="22" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AA70" s="22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AC70" s="22" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AD70" s="22" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AE70" s="22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AF70" s="22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AH70" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AI70" s="22" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="AJ70" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9425,15 +9744,18 @@
       </c>
       <c r="AI71" s="20">
         <v>2.9722578425658801</v>
+      </c>
+      <c r="AJ71" s="20">
+        <v>2.9576615017971299</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -9530,15 +9852,18 @@
       </c>
       <c r="AI72" s="22">
         <v>143.940184924639</v>
+      </c>
+      <c r="AJ72" s="22">
+        <v>146.55791863545701</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -9635,15 +9960,18 @@
       </c>
       <c r="AI73" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ73" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -9739,16 +10067,19 @@
         <v>73.326096841505304</v>
       </c>
       <c r="AI74" s="22" t="s">
-        <v>219</v>
+        <v>225</v>
+      </c>
+      <c r="AJ74" s="22" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -9845,15 +10176,18 @@
       </c>
       <c r="AI75" s="20">
         <v>4.4367504368068102</v>
+      </c>
+      <c r="AJ75" s="20">
+        <v>4.3905312203495699</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -9950,15 +10284,18 @@
       </c>
       <c r="AI76" s="22">
         <v>8.2791535765560607</v>
+      </c>
+      <c r="AJ76" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10055,15 +10392,18 @@
       </c>
       <c r="AI77" s="20">
         <v>1.0320277748870901</v>
+      </c>
+      <c r="AJ77" s="20">
+        <v>1.0421051770944401</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10111,64 +10451,67 @@
         <v>9.2868669896292193</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="V78" s="22" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="W78" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Z78" s="22" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AA78" s="22" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AB78" s="22" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AC78" s="22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AD78" s="22" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AE78" s="22" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AF78" s="22" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AG78" s="22" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AH78" s="22" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="AJ78" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10265,15 +10608,18 @@
       </c>
       <c r="AI79" s="20">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ79" s="20">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10370,15 +10716,18 @@
       </c>
       <c r="AI80" s="22">
         <v>11.001309223390001</v>
+      </c>
+      <c r="AJ80" s="22">
+        <v>10.8569698487883</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -10475,15 +10824,18 @@
       </c>
       <c r="AI81" s="20">
         <v>1.0320277748870901</v>
+      </c>
+      <c r="AJ81" s="20">
+        <v>1.0421051770944401</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -10576,19 +10928,22 @@
         <v>14438.2136760453</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>254</v>
+        <v>263</v>
+      </c>
+      <c r="AJ82" s="22" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -10685,15 +11040,18 @@
       </c>
       <c r="AI83" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ83" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -10790,15 +11148,18 @@
       </c>
       <c r="AI84" s="22">
         <v>296.462706785884</v>
+      </c>
+      <c r="AJ84" s="22">
+        <v>292.90499982174202</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -10894,16 +11255,19 @@
         <v>125.351888588435</v>
       </c>
       <c r="AI85" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="AJ85" s="20" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11000,15 +11364,18 @@
       </c>
       <c r="AI86" s="22">
         <v>33.927670496029698</v>
+      </c>
+      <c r="AJ86" s="22">
+        <v>33.920998894042597</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11105,15 +11472,18 @@
       </c>
       <c r="AI87" s="20">
         <v>426.73093214175901</v>
+      </c>
+      <c r="AJ87" s="20">
+        <v>447.63189037505998</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11210,15 +11580,18 @@
       </c>
       <c r="AI88" s="22">
         <v>179.59219396315399</v>
+      </c>
+      <c r="AJ88" s="22">
+        <v>182.56801347075401</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11315,15 +11688,18 @@
       </c>
       <c r="AI89" s="20">
         <v>105.349701243116</v>
+      </c>
+      <c r="AJ89" s="20">
+        <v>105.260511874221</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -11420,15 +11796,18 @@
       </c>
       <c r="AI90" s="22">
         <v>20458.936984817799</v>
+      </c>
+      <c r="AJ90" s="22">
+        <v>20037.826108372701</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -11525,15 +11904,18 @@
       </c>
       <c r="AI91" s="20">
         <v>59719.106402911799</v>
+      </c>
+      <c r="AJ91" s="20">
+        <v>59002.4460072574</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -11630,15 +12012,18 @@
       </c>
       <c r="AI92" s="22">
         <v>2061.73105438624</v>
+      </c>
+      <c r="AJ92" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -11735,15 +12120,18 @@
       </c>
       <c r="AI93" s="20">
         <v>1.0320277748870901</v>
+      </c>
+      <c r="AJ93" s="20">
+        <v>1.0421051770944401</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -11840,15 +12228,18 @@
       </c>
       <c r="AI94" s="22">
         <v>4.5983008169728903</v>
+      </c>
+      <c r="AJ94" s="22">
+        <v>4.4336235207687</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -11944,16 +12335,19 @@
         <v>215.71327480265799</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>282</v>
+        <v>294</v>
+      </c>
+      <c r="AJ95" s="20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12050,15 +12444,18 @@
       </c>
       <c r="AI96" s="22">
         <v>156.51176245765501</v>
+      </c>
+      <c r="AJ96" s="22">
+        <v>159.569421889534</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12155,15 +12552,18 @@
       </c>
       <c r="AI97" s="20">
         <v>1.0320277748870901</v>
+      </c>
+      <c r="AJ97" s="20">
+        <v>1.0421051770944401</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12260,15 +12660,18 @@
       </c>
       <c r="AI98" s="22">
         <v>1.00953727490637</v>
+      </c>
+      <c r="AJ98" s="22">
+        <v>0.997422301551257</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -12365,15 +12768,18 @@
       </c>
       <c r="AI99" s="20">
         <v>605.33845640265895</v>
+      </c>
+      <c r="AJ99" s="20">
+        <v>603.87598668285</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -12470,15 +12876,18 @@
       </c>
       <c r="AI100" s="22">
         <v>155.23901776013699</v>
+      </c>
+      <c r="AJ100" s="22">
+        <v>157.19581036071</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -12575,15 +12984,18 @@
       </c>
       <c r="AI101" s="20">
         <v>1.9348395234412099</v>
+      </c>
+      <c r="AJ101" s="20">
+        <v>1.9277393204762101</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -12680,15 +13092,18 @@
       </c>
       <c r="AI102" s="22">
         <v>1646.4747219747601</v>
+      </c>
+      <c r="AJ102" s="22">
+        <v>1662.06612488777</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -12785,15 +13200,18 @@
       </c>
       <c r="AI103" s="20">
         <v>1.2062191766700601</v>
+      </c>
+      <c r="AJ103" s="20">
+        <v>1.2281557929322799</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -12890,15 +13308,18 @@
       </c>
       <c r="AI104" s="22">
         <v>0.42773888954612599</v>
+      </c>
+      <c r="AJ104" s="22">
+        <v>0.42443379305907802</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -12995,15 +13416,18 @@
       </c>
       <c r="AI105" s="20">
         <v>120.470548784781</v>
+      </c>
+      <c r="AJ105" s="20">
+        <v>119.119775809551</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13100,15 +13524,18 @@
       </c>
       <c r="AI106" s="22">
         <v>13610.8288618394</v>
+      </c>
+      <c r="AJ106" s="22" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13205,15 +13632,18 @@
       </c>
       <c r="AI107" s="20">
         <v>2143.4893548188002</v>
+      </c>
+      <c r="AJ107" s="20">
+        <v>2117.7663656176301</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -13310,15 +13740,18 @@
       </c>
       <c r="AI108" s="22">
         <v>20.817893801569301</v>
+      </c>
+      <c r="AJ108" s="22">
+        <v>21.6438225900093</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -13414,16 +13847,19 @@
         <v>246.61726753955099</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+      <c r="AJ109" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -13510,25 +13946,28 @@
         <v>1.9385691115330601</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>317</v>
+        <v>332</v>
+      </c>
+      <c r="AJ110" s="22" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -13546,94 +13985,97 @@
         <v>4.05837970975485</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="T111" s="20" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="X111" s="20" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Y111" s="20" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Z111" s="20" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AA111" s="20" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AB111" s="20" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AC111" s="20" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AD111" s="20" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AE111" s="20" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AF111" s="20" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="AG111" s="20" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AH111" s="20" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="AI111" s="20" t="s">
-        <v>346</v>
+        <v>362</v>
+      </c>
+      <c r="AJ111" s="20" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -13728,17 +14170,20 @@
       <c r="AH112" s="22">
         <v>5411.5611019780899</v>
       </c>
-      <c r="AI112" s="22" t="s">
-        <v>349</v>
+      <c r="AI112" s="22">
+        <v>5458.1705643533796</v>
+      </c>
+      <c r="AJ112" s="22">
+        <v>5543.2434554479796</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -13835,15 +14280,18 @@
       </c>
       <c r="AI113" s="20">
         <v>1163.3141447246001</v>
+      </c>
+      <c r="AJ113" s="20" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -13940,15 +14388,18 @@
       </c>
       <c r="AI114" s="22">
         <v>5.9660338604269603</v>
+      </c>
+      <c r="AJ114" s="22">
+        <v>5.8785796564429296</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14045,15 +14496,18 @@
       </c>
       <c r="AI115" s="20">
         <v>21.854721210524499</v>
+      </c>
+      <c r="AJ115" s="20">
+        <v>21.621984601987801</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14150,15 +14604,18 @@
       </c>
       <c r="AI116" s="22">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ116" s="22">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -14251,19 +14708,22 @@
         <v>51.716039238081002</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>361</v>
+        <v>378</v>
+      </c>
+      <c r="AJ117" s="20" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -14360,15 +14820,18 @@
       </c>
       <c r="AI118" s="22">
         <v>60.8579402827921</v>
+      </c>
+      <c r="AJ118" s="22">
+        <v>60.677553545806298</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -14465,15 +14928,18 @@
       </c>
       <c r="AI119" s="20">
         <v>28.452931265086399</v>
+      </c>
+      <c r="AJ119" s="20">
+        <v>29.147161500247101</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -14570,15 +15036,18 @@
       </c>
       <c r="AI120" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ120" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -14675,15 +15144,18 @@
       </c>
       <c r="AI121" s="20">
         <v>25.313061287580702</v>
+      </c>
+      <c r="AJ121" s="20">
+        <v>24.725374794034298</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -14779,16 +15251,19 @@
         <v>4088.6985006118398</v>
       </c>
       <c r="AI122" s="22" t="s">
-        <v>372</v>
+        <v>390</v>
+      </c>
+      <c r="AJ122" s="22" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -14885,15 +15360,18 @@
       </c>
       <c r="AI123" s="20">
         <v>1.2062191766700601</v>
+      </c>
+      <c r="AJ123" s="20">
+        <v>1.2281557929322799</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -14990,15 +15468,18 @@
       </c>
       <c r="AI124" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ124" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15095,15 +15576,18 @@
       </c>
       <c r="AI125" s="20">
         <v>12.740571356051801</v>
+      </c>
+      <c r="AJ125" s="20">
+        <v>12.8627082822857</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -15200,15 +15684,18 @@
       </c>
       <c r="AI126" s="22">
         <v>90.559759209558493</v>
+      </c>
+      <c r="AJ126" s="22" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -15301,19 +15788,22 @@
         <v>1997.6212100547</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>384</v>
+        <v>404</v>
+      </c>
+      <c r="AJ127" s="20" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -15410,15 +15900,18 @@
       </c>
       <c r="AI128" s="22">
         <v>20.785187587417301</v>
+      </c>
+      <c r="AJ128" s="22">
+        <v>21.6533357566063</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -15515,15 +16008,18 @@
       </c>
       <c r="AI129" s="20">
         <v>1.9348395234412099</v>
+      </c>
+      <c r="AJ129" s="20">
+        <v>1.9277393204762101</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -15620,15 +16116,18 @@
       </c>
       <c r="AI130" s="22">
         <v>168.625266738737</v>
+      </c>
+      <c r="AJ130" s="22">
+        <v>167.849132853225</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -15725,15 +16224,18 @@
       </c>
       <c r="AI131" s="20">
         <v>143.940184924639</v>
+      </c>
+      <c r="AJ131" s="20">
+        <v>146.55791863545701</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -15830,15 +16332,18 @@
       </c>
       <c r="AI132" s="22">
         <v>2.0302126371180398</v>
+      </c>
+      <c r="AJ132" s="22">
+        <v>2.0218171498486899</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -15931,19 +16436,22 @@
         <v>50.155650584970203</v>
       </c>
       <c r="AH133" s="20" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="AI133" s="20" t="s">
-        <v>398</v>
+        <v>419</v>
+      </c>
+      <c r="AJ133" s="20" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16040,15 +16548,18 @@
       </c>
       <c r="AI134" s="22">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ134" s="22">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -16145,15 +16656,18 @@
       </c>
       <c r="AI135" s="20">
         <v>583.96754761133104</v>
+      </c>
+      <c r="AJ135" s="20" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -16250,15 +16764,18 @@
       </c>
       <c r="AI136" s="22">
         <v>74.211511643412805</v>
+      </c>
+      <c r="AJ136" s="22">
+        <v>75.761997140942697</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -16355,15 +16872,18 @@
       </c>
       <c r="AI137" s="20">
         <v>12.4556993354645</v>
+      </c>
+      <c r="AJ137" s="20">
+        <v>12.2500316472211</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -16460,15 +16980,18 @@
       </c>
       <c r="AI138" s="22">
         <v>0.54671420028380002</v>
+      </c>
+      <c r="AJ138" s="22">
+        <v>0.540153344995012</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -16565,15 +17088,18 @@
       </c>
       <c r="AI139" s="20">
         <v>233.58688962680401</v>
+      </c>
+      <c r="AJ139" s="20">
+        <v>244.89920392136301</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -16670,15 +17196,18 @@
       </c>
       <c r="AI140" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ140" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -16775,15 +17304,18 @@
       </c>
       <c r="AI141" s="20">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ141" s="20">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -16880,15 +17412,18 @@
       </c>
       <c r="AI142" s="22">
         <v>4.9890648623986502</v>
+      </c>
+      <c r="AJ142" s="22" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -16985,15 +17520,18 @@
       </c>
       <c r="AI143" s="20">
         <v>9798.3841813427407</v>
+      </c>
+      <c r="AJ143" s="20">
+        <v>9636.2214595899295</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -17088,17 +17626,20 @@
       <c r="AH144" s="22">
         <v>5.4445210451176704</v>
       </c>
-      <c r="AI144" s="22" t="s">
-        <v>421</v>
+      <c r="AI144" s="22">
+        <v>5.7509109627818997</v>
+      </c>
+      <c r="AJ144" s="22">
+        <v>5.6528194874190403</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -17195,15 +17736,18 @@
       </c>
       <c r="AI145" s="20">
         <v>71.245567948378095</v>
+      </c>
+      <c r="AJ145" s="20">
+        <v>70.875050424321103</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -17300,15 +17844,18 @@
       </c>
       <c r="AI146" s="22">
         <v>5.5065755715103997</v>
+      </c>
+      <c r="AJ146" s="22">
+        <v>5.6752860684885498</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -17405,15 +17952,18 @@
       </c>
       <c r="AI147" s="20">
         <v>5.1756558882523596</v>
+      </c>
+      <c r="AJ147" s="20">
+        <v>5.1135453206289796</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -17510,15 +18060,18 @@
       </c>
       <c r="AI148" s="22">
         <v>5.9479282054976297</v>
+      </c>
+      <c r="AJ148" s="22">
+        <v>6.0780011761571302</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -17615,15 +18168,18 @@
       </c>
       <c r="AI149" s="20">
         <v>104.461656238413</v>
+      </c>
+      <c r="AJ149" s="20">
+        <v>101.98750736239199</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -17720,15 +18276,18 @@
       </c>
       <c r="AI150" s="22">
         <v>1410.3894484105899</v>
+      </c>
+      <c r="AJ150" s="22">
+        <v>1408.7741168692901</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -17825,15 +18384,18 @@
       </c>
       <c r="AI151" s="20">
         <v>3.6571137037114498</v>
+      </c>
+      <c r="AJ151" s="20">
+        <v>3.6324699729995702</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -17930,15 +18492,18 @@
       </c>
       <c r="AI152" s="22">
         <v>1.2062191766700601</v>
+      </c>
+      <c r="AJ152" s="22">
+        <v>1.2281557929322799</v>
       </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -18028,22 +18593,25 @@
         <v>29.286316797857399</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>442</v>
+        <v>465</v>
+      </c>
+      <c r="AJ153" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -18140,15 +18708,18 @@
       </c>
       <c r="AI154" s="22">
         <v>5.3320630716885598</v>
+      </c>
+      <c r="AJ154" s="22">
+        <v>5.2680755363622698</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -18245,15 +18816,18 @@
       </c>
       <c r="AI155" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ155" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -18350,15 +18924,18 @@
       </c>
       <c r="AI156" s="22">
         <v>141.77339558109401</v>
+      </c>
+      <c r="AJ156" s="22">
+        <v>144.39888699845201</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -18455,15 +19032,18 @@
       </c>
       <c r="AI157" s="20">
         <v>21.3214733084817</v>
+      </c>
+      <c r="AJ157" s="20">
+        <v>20.637413108979501</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -18560,15 +19140,18 @@
       </c>
       <c r="AI158" s="22">
         <v>14715.6942478818</v>
+      </c>
+      <c r="AJ158" s="22" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -18665,15 +19248,18 @@
       </c>
       <c r="AI159" s="20">
         <v>1.92286043394138</v>
+      </c>
+      <c r="AJ159" s="20">
+        <v>1.9066687254583301</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -18770,15 +19356,18 @@
       </c>
       <c r="AI160" s="22">
         <v>2.5451714395526701</v>
+      </c>
+      <c r="AJ160" s="22">
+        <v>2.5146280560235899</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -18871,19 +19460,22 @@
         <v>11.5018445201282</v>
       </c>
       <c r="AH161" s="20" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="AI161" s="20" t="s">
-        <v>460</v>
+        <v>485</v>
+      </c>
+      <c r="AJ161" s="20" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -18943,52 +19535,55 @@
         <v>33625.194508423803</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>475</v>
+        <v>501</v>
+      </c>
+      <c r="AJ162" s="22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -19085,15 +19680,18 @@
       </c>
       <c r="AI163" s="20">
         <v>20.785212064193601</v>
+      </c>
+      <c r="AJ163" s="20">
+        <v>21.653338763389701</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -19190,15 +19788,18 @@
       </c>
       <c r="AI164" s="22">
         <v>557.68315230607402</v>
+      </c>
+      <c r="AJ164" s="22">
+        <v>579.02091650149202</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -19288,22 +19889,25 @@
         <v>264.17070280802699</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>484</v>
+        <v>511</v>
+      </c>
+      <c r="AJ165" s="20" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -19400,15 +20004,18 @@
       </c>
       <c r="AI166" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ166" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -19505,15 +20112,18 @@
       </c>
       <c r="AI167" s="20">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ167" s="20">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -19610,15 +20220,18 @@
       </c>
       <c r="AI168" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ168" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -19711,19 +20324,22 @@
         <v>280.17364196543099</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>494</v>
+        <v>522</v>
+      </c>
+      <c r="AJ169" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -19816,19 +20432,22 @@
         <v>20.334905622070501</v>
       </c>
       <c r="AH170" s="22">
-        <v>22.894633546781002</v>
+        <v>22.894635699085601</v>
       </c>
       <c r="AI170" s="22">
         <v>30.304757954786702</v>
+      </c>
+      <c r="AJ170" s="22">
+        <v>30.248107105368401</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -19925,15 +20544,18 @@
       </c>
       <c r="AI171" s="20">
         <v>12.297611744272301</v>
+      </c>
+      <c r="AJ171" s="20">
+        <v>12.4369684080777</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -20030,15 +20652,18 @@
       </c>
       <c r="AI172" s="22">
         <v>1.3055497185884199</v>
+      </c>
+      <c r="AJ172" s="22">
+        <v>1.2953846538879099</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -20101,49 +20726,52 @@
         <v>611.21228342347501</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>514</v>
+        <v>543</v>
+      </c>
+      <c r="AJ173" s="20" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -20240,15 +20868,18 @@
       </c>
       <c r="AI174" s="22">
         <v>39.630736515760901</v>
+      </c>
+      <c r="AJ174" s="22">
+        <v>39.1125341488586</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -20345,15 +20976,18 @@
       </c>
       <c r="AI175" s="20">
         <v>16.098517429925899</v>
+      </c>
+      <c r="AJ175" s="20">
+        <v>15.860419414808</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -20443,22 +21077,25 @@
         <v>3272.7550437612799</v>
       </c>
       <c r="AG176" s="22" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="AH176" s="22" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="AI176" s="22" t="s">
-        <v>523</v>
+        <v>553</v>
+      </c>
+      <c r="AJ176" s="22" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -20555,15 +21192,18 @@
       </c>
       <c r="AI177" s="20">
         <v>46.805421556417599</v>
+      </c>
+      <c r="AJ177" s="20">
+        <v>46.890462338596798</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -20660,15 +21300,18 @@
       </c>
       <c r="AI178" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ178" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -20765,15 +21408,18 @@
       </c>
       <c r="AI179" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ179" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -20870,15 +21516,18 @@
       </c>
       <c r="AI180" s="22">
         <v>3.2093130487979402</v>
+      </c>
+      <c r="AJ180" s="22" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -20975,15 +21624,18 @@
       </c>
       <c r="AI181" s="20">
         <v>9.6110226217780905</v>
+      </c>
+      <c r="AJ181" s="20">
+        <v>9.4953858936385593</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -21080,15 +21732,18 @@
       </c>
       <c r="AI182" s="22">
         <v>3.98288522814468</v>
+      </c>
+      <c r="AJ182" s="22">
+        <v>4.0371721270394403</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -21185,15 +21840,18 @@
       </c>
       <c r="AI183" s="20">
         <v>12.134102468261601</v>
+      </c>
+      <c r="AJ183" s="20" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -21290,15 +21948,18 @@
       </c>
       <c r="AI184" s="22">
         <v>5033.4551674410704</v>
+      </c>
+      <c r="AJ184" s="22">
+        <v>5004.1833108561596</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -21395,15 +22056,18 @@
       </c>
       <c r="AI185" s="20">
         <v>38.261552534591502</v>
+      </c>
+      <c r="AJ185" s="20">
+        <v>37.477962789191501</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -21500,15 +22164,18 @@
       </c>
       <c r="AI186" s="22">
         <v>5.2218671015403304</v>
+      </c>
+      <c r="AJ186" s="22">
+        <v>5.1592019752774503</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -21605,15 +22272,18 @@
       </c>
       <c r="AI187" s="20">
         <v>1.0320277748870901</v>
+      </c>
+      <c r="AJ187" s="20">
+        <v>1.0421051770944401</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -21710,15 +22380,18 @@
       </c>
       <c r="AI188" s="22">
         <v>1.42188348578362</v>
+      </c>
+      <c r="AJ188" s="22">
+        <v>1.4048201430299401</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -21815,15 +22488,18 @@
       </c>
       <c r="AI189" s="20">
         <v>61.496460760141403</v>
+      </c>
+      <c r="AJ189" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -21920,15 +22596,18 @@
       </c>
       <c r="AI190" s="22">
         <v>15137.900270394901</v>
+      </c>
+      <c r="AJ190" s="22">
+        <v>15090.500454524699</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -22025,15 +22704,18 @@
       </c>
       <c r="AI191" s="20">
         <v>157.44989799243899</v>
+      </c>
+      <c r="AJ191" s="20" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -22093,52 +22775,55 @@
         <v>102008.149221418</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>568</v>
+        <v>603</v>
+      </c>
+      <c r="AJ192" s="22" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -22235,15 +22920,18 @@
       </c>
       <c r="AI193" s="20">
         <v>32932.172320060003</v>
+      </c>
+      <c r="AJ193" s="20" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -22340,15 +23028,18 @@
       </c>
       <c r="AI194" s="22">
         <v>1507.67045609256</v>
+      </c>
+      <c r="AJ194" s="22" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -22445,81 +23136,84 @@
       </c>
       <c r="AI195" s="20">
         <v>27.060778653844</v>
+      </c>
+      <c r="AJ195" s="20" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="Y196" s="22" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="Z196" s="22">
         <v>6.1037238670992897</v>
@@ -22550,15 +23244,18 @@
       </c>
       <c r="AI196" s="22">
         <v>122.189395126836</v>
+      </c>
+      <c r="AJ196" s="22" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -22655,15 +23352,18 @@
       </c>
       <c r="AI197" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ197" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -22760,15 +23460,18 @@
       </c>
       <c r="AI198" s="22">
         <v>3.83908541161576</v>
+      </c>
+      <c r="AJ198" s="22">
+        <v>3.7930143861808401</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -22865,6 +23568,9 @@
       </c>
       <c r="AI199" s="20">
         <v>791.22791247096302</v>
+      </c>
+      <c r="AJ199" s="20">
+        <v>805.61738946448099</v>
       </c>
     </row>
   </sheetData>
